--- a/CurveTracerOriginalHammondMainBrdRev1b.xlsx
+++ b/CurveTracerOriginalHammondMainBrdRev1b.xlsx
@@ -626,9 +626,6 @@
     <t>RMCF2512FT100R</t>
   </si>
   <si>
-    <t>R5</t>
-  </si>
-  <si>
     <t>RES 150 OHM 1% 1/4W 1206</t>
   </si>
   <si>
@@ -794,9 +791,6 @@
     <t>RMCF1206FT1M00CT-ND</t>
   </si>
   <si>
-    <t>R17, R82</t>
-  </si>
-  <si>
     <t>RES 100 OHM 1% 1/4W 1206</t>
   </si>
   <si>
@@ -935,9 +929,6 @@
     <t>R79, R80</t>
   </si>
   <si>
-    <t>RES 0.5 OHM 1% 2W 2512RES 0.5 OHM 1% 2W 2512</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
@@ -1031,24 +1022,12 @@
     <t>U3</t>
   </si>
   <si>
-    <t>OPA172IDCKT 10 MHz,10 V/s, 4.5V to 36V, SC-70</t>
-  </si>
-  <si>
-    <t>TLV271</t>
-  </si>
-  <si>
     <t>SOT23-5AM</t>
   </si>
   <si>
     <t>Texas Instruments</t>
   </si>
   <si>
-    <t>OPA172IDBVR</t>
-  </si>
-  <si>
-    <t>296-40433-1-ND</t>
-  </si>
-  <si>
     <t>U4</t>
   </si>
   <si>
@@ -1100,21 +1079,9 @@
     <t>U50, U51</t>
   </si>
   <si>
-    <t>IC OPAMP GP 3MHZ RRO 8SOIC</t>
-  </si>
-  <si>
-    <t>TLV272</t>
-  </si>
-  <si>
     <t>SOIC127P600X168_HS-8N</t>
   </si>
   <si>
-    <t>TLV272IDR</t>
-  </si>
-  <si>
-    <t>296-10655-1-ND</t>
-  </si>
-  <si>
     <t>U52</t>
   </si>
   <si>
@@ -1218,13 +1185,46 @@
   </si>
   <si>
     <t>C19, C20, C28, C50, C56, C60, C71, C74, C114, C117</t>
+  </si>
+  <si>
+    <t>R82</t>
+  </si>
+  <si>
+    <t>R5, R17</t>
+  </si>
+  <si>
+    <t>TLV9151DBVR</t>
+  </si>
+  <si>
+    <t>TLV9151</t>
+  </si>
+  <si>
+    <t>IC OPAMP 4.5 MHz,10 V/s, 2.7V to 16V, SOT-23-5</t>
+  </si>
+  <si>
+    <t>IC OPAMP 4.5 MHz,10 V/s, 2.7V to 16V, 8SOIC</t>
+  </si>
+  <si>
+    <t>TLV9152</t>
+  </si>
+  <si>
+    <t>TLV9152DBVR</t>
+  </si>
+  <si>
+    <t>296-TLV9151IDBVRCT-ND</t>
+  </si>
+  <si>
+    <t>296-TLV9152IDBVRCT-ND</t>
+  </si>
+  <si>
+    <t>RES 0.5 OHM 1% 2W 2512</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1238,8 +1238,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1249,6 +1256,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,7 +1293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1299,6 +1312,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1580,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1599,16 +1615,17 @@
     <col min="9" max="9" width="17.3984375" customWidth="1"/>
     <col min="10" max="10" width="8.73046875" customWidth="1"/>
     <col min="11" max="11" width="21.33203125" customWidth="1"/>
+    <col min="13" max="15" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="G3" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.65" x14ac:dyDescent="0.5">
@@ -1622,13 +1639,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>4</v>
@@ -2054,7 +2071,7 @@
         <v>115</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>116</v>
@@ -2179,7 +2196,7 @@
         <v>194</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
@@ -2203,42 +2220,42 @@
         <v>16</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
@@ -2246,34 +2263,34 @@
         <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="G22" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
@@ -2281,34 +2298,34 @@
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I23" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="25.5" x14ac:dyDescent="0.45">
@@ -2316,34 +2333,34 @@
         <v>11</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="25.5" x14ac:dyDescent="0.45">
@@ -2351,34 +2368,34 @@
         <v>10</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I25" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
@@ -2386,34 +2403,34 @@
         <v>1</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="G26" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
@@ -2421,34 +2438,34 @@
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="G27" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="25.5" x14ac:dyDescent="0.45">
@@ -2456,34 +2473,34 @@
         <v>10</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="G28" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I28" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
@@ -2491,69 +2508,69 @@
         <v>1</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="G29" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I29" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
@@ -2561,34 +2578,34 @@
         <v>1</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="G31" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
@@ -2596,194 +2613,194 @@
         <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="G33" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>1</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="G34" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>1</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="G35" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>1</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="G36" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="25.5" x14ac:dyDescent="0.45">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>6</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>197</v>
@@ -2792,33 +2809,33 @@
         <v>198</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>2</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>197</v>
@@ -2827,24 +2844,24 @@
         <v>198</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>5</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>12</v>
@@ -2856,36 +2873,36 @@
         <v>158</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>198</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>1</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
@@ -2894,68 +2911,71 @@
         <v>184</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>1</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+        <v>395</v>
+      </c>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>1</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
@@ -2964,226 +2984,226 @@
         <v>184</v>
       </c>
       <c r="H42" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>1</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>173</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>1</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>173</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>2</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>1</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>173</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>1</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>371</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>1</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>173</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
@@ -3191,39 +3211,39 @@
         <v>1</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="G51" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
@@ -3269,7 +3289,7 @@
         <v>31</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>32</v>
@@ -3756,34 +3776,34 @@
         <v>2</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="I67" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
@@ -3791,7 +3811,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>140</v>
@@ -3800,25 +3820,25 @@
         <v>12</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>128</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="76.5" x14ac:dyDescent="0.45">
@@ -3826,34 +3846,34 @@
         <v>28</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="I69" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="J69" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="25.5" x14ac:dyDescent="0.45">
@@ -3861,7 +3881,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>79</v>
@@ -3892,6 +3912,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M41:O41"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
